--- a/uploads/commitment_update.xlsx
+++ b/uploads/commitment_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NKarisa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C337477-D6D8-4FC1-8C84-B7ED511160BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19807DED-3D0C-4D0A-A286-89EF71174F27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{D31C0714-CF94-4600-8E67-2D6B58F73890}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>dea_code</t>
   </si>
@@ -42,10 +42,25 @@
     <t>amount</t>
   </si>
   <si>
-    <t>LPO653513</t>
-  </si>
-  <si>
-    <t>Training</t>
+    <t>LPO-776392</t>
+  </si>
+  <si>
+    <t>LPO-776393</t>
+  </si>
+  <si>
+    <t>LPO-776396</t>
+  </si>
+  <si>
+    <t>Testing 1</t>
+  </si>
+  <si>
+    <t>Testing 2</t>
+  </si>
+  <si>
+    <t>Testing 3</t>
+  </si>
+  <si>
+    <t>Testing 4</t>
   </si>
 </sst>
 </file>
@@ -398,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10041BA7-0688-4ACF-909E-8103853311A6}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,19 +447,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>290290</v>
+        <v>456456</v>
       </c>
       <c r="B2" s="1">
-        <v>43474</v>
+        <v>43461</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>284648</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>10000</v>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>290291</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>456456</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43461</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>6500</v>
       </c>
     </row>
   </sheetData>
